--- a/eXtend/TestData/testdata.xlsx
+++ b/eXtend/TestData/testdata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5985" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>S.No.</t>
   </si>
@@ -41,199 +41,205 @@
     <t>TestData4</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>rgajbhiye</t>
+  </si>
+  <si>
+    <t>OpenSession</t>
+  </si>
+  <si>
+    <t>tdsls4500m002</t>
+  </si>
+  <si>
+    <t>Open the Brower and Login</t>
+  </si>
+  <si>
+    <t>Open Part Sales Order MultiOCC</t>
+  </si>
+  <si>
+    <t>Click on New Button</t>
+  </si>
+  <si>
+    <t>tdsls4500m002-0-button-std-file.new</t>
+  </si>
+  <si>
+    <t>Enter Customer</t>
+  </si>
+  <si>
+    <t>EnterText</t>
+  </si>
+  <si>
+    <t>tdtre4101m002-1-tdsls400.ofbp-1-lookup-widget</t>
+  </si>
+  <si>
+    <t>M00000182</t>
+  </si>
+  <si>
+    <t>Click on Save Button</t>
+  </si>
+  <si>
+    <t>tdtre4101m002-1-button-std-file.save</t>
+  </si>
+  <si>
+    <t>Get the Sale Order Number</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>RunMode(Y/N)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TestStep</t>
+  </si>
+  <si>
+    <t>KeyWord</t>
+  </si>
+  <si>
+    <t>Get the Screenshot</t>
+  </si>
+  <si>
+    <t>TakeScreenshot</t>
+  </si>
+  <si>
+    <t>Step No.</t>
+  </si>
+  <si>
+    <t>tdtre4101m002-1-tdsls400.orno-15-lookup-widget</t>
+  </si>
+  <si>
+    <t>DemoTest</t>
+  </si>
+  <si>
+    <t>KP3</t>
+  </si>
+  <si>
+    <t>KP4</t>
+  </si>
+  <si>
+    <t>KP5</t>
+  </si>
+  <si>
+    <t>KP6</t>
+  </si>
+  <si>
+    <t>AddPartLine</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Add part line 1</t>
+  </si>
+  <si>
+    <t>Add part line 2</t>
+  </si>
+  <si>
+    <t>Add part line 3</t>
+  </si>
+  <si>
+    <t>Add part line 4</t>
+  </si>
+  <si>
+    <t>Click On Action Button</t>
+  </si>
+  <si>
+    <t>tdtre4101m002-1-button-std:action</t>
+  </si>
+  <si>
+    <t>Click on Pick and Pack</t>
+  </si>
+  <si>
+    <t>tdtre4101m002-1-menu-std:action-form-pick.and.pack-label</t>
+  </si>
+  <si>
+    <t>Click on location option</t>
+  </si>
+  <si>
+    <t>dlg-tdtre4101m002-1-input-button-1-label</t>
+  </si>
+  <si>
+    <t>get mauc for first part</t>
+  </si>
+  <si>
+    <t>wh001</t>
+  </si>
+  <si>
+    <t>GetTheMauc</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>wait for 10 seconds</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Get part issue</t>
+  </si>
+  <si>
+    <t>GetFinTransAmt</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Parts (Sales)</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Robin#123</t>
+  </si>
+  <si>
+    <t>DemoTest1</t>
+  </si>
+  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>rgajbhiye</t>
-  </si>
-  <si>
-    <t>proxima-ln4.e-emphasys.com:8441/webui/servlet/login</t>
-  </si>
-  <si>
-    <t>OpenSession</t>
-  </si>
-  <si>
-    <t>tdsls4500m002</t>
-  </si>
-  <si>
-    <t>Open the Brower and Login</t>
-  </si>
-  <si>
-    <t>Open Part Sales Order MultiOCC</t>
-  </si>
-  <si>
-    <t>Click on New Button</t>
-  </si>
-  <si>
-    <t>tdsls4500m002-0-button-std-file.new</t>
-  </si>
-  <si>
-    <t>Enter Customer</t>
-  </si>
-  <si>
-    <t>EnterText</t>
-  </si>
-  <si>
-    <t>tdtre4101m002-1-tdsls400.ofbp-1-lookup-widget</t>
-  </si>
-  <si>
-    <t>M00000182</t>
-  </si>
-  <si>
-    <t>Click on Save Button</t>
-  </si>
-  <si>
-    <t>tdtre4101m002-1-button-std-file.save</t>
-  </si>
-  <si>
-    <t>Get the Sale Order Number</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t>RunMode(Y/N)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>SaleOrderLineTest</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TestStep</t>
-  </si>
-  <si>
-    <t>KeyWord</t>
-  </si>
-  <si>
-    <t>Get the Screenshot</t>
-  </si>
-  <si>
-    <t>TakeScreenshot</t>
-  </si>
-  <si>
-    <t>Step No.</t>
-  </si>
-  <si>
-    <t>tdtre4101m002-1-tdsls400.orno-15-lookup-widget</t>
-  </si>
-  <si>
-    <t>Robin$123</t>
-  </si>
-  <si>
-    <t>PSOHeader</t>
-  </si>
-  <si>
-    <t>DemoTest</t>
-  </si>
-  <si>
-    <t>KP3</t>
-  </si>
-  <si>
-    <t>KP4</t>
-  </si>
-  <si>
-    <t>KP5</t>
-  </si>
-  <si>
-    <t>KP6</t>
-  </si>
-  <si>
-    <t>AddPartLine</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>Add part line 1</t>
-  </si>
-  <si>
-    <t>Add part line 2</t>
-  </si>
-  <si>
-    <t>Add part line 3</t>
-  </si>
-  <si>
-    <t>Add part line 4</t>
-  </si>
-  <si>
-    <t>Click On Action Button</t>
-  </si>
-  <si>
-    <t>tdtre4101m002-1-button-std:action</t>
-  </si>
-  <si>
-    <t>Click on Pick and Pack</t>
-  </si>
-  <si>
-    <t>tdtre4101m002-1-menu-std:action-form-pick.and.pack-label</t>
-  </si>
-  <si>
-    <t>Click on location option</t>
-  </si>
-  <si>
-    <t>dlg-tdtre4101m002-1-input-button-1-label</t>
-  </si>
-  <si>
-    <t>get mauc for first part</t>
-  </si>
-  <si>
-    <t>wh001</t>
-  </si>
-  <si>
-    <t>GetTheMauc</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>wait for 10 seconds</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>PS0049338</t>
+    <t>https://proxima-ln4.e-emphasys.com:8441/webui/servlet/login</t>
+  </si>
+  <si>
+    <t>get mauc for Second part</t>
+  </si>
+  <si>
+    <t>get mauc for Third part</t>
+  </si>
+  <si>
+    <t>get mauc for Fourth part</t>
+  </si>
+  <si>
+    <t>Check issue entry for first part</t>
+  </si>
+  <si>
+    <t>PS0049381</t>
+  </si>
+  <si>
+    <t>Compare Mauc and isssue</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t>PS0049382</t>
   </si>
   <si>
     <t>18.4369</t>
-  </si>
-  <si>
-    <t>22.5733</t>
-  </si>
-  <si>
-    <t>29.3794</t>
-  </si>
-  <si>
-    <t>43.4400</t>
-  </si>
-  <si>
-    <t>Get part issue</t>
-  </si>
-  <si>
-    <t>GetFinTransAmt</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>Parts (Sales)</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +266,14 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,10 +317,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -335,8 +350,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -676,7 +693,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -692,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -703,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -714,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -778,10 +795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -801,16 +818,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -828,652 +845,656 @@
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>J7</f>
+        <v>PS0049382</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="11">
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H11" s="11">
         <v>2</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="11">
         <v>3</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H12" s="11">
         <v>3</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H13" s="11">
         <v>4</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="11">
         <v>10000</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="11">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="11">
-        <v>8</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>J7</f>
+        <v>PS0049382</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="11">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f>J18</f>
+        <v>18.4369</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <f>J19</f>
+        <v>2.22</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B21" s="5">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" s="11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5">
         <v>21</v>
@@ -1482,29 +1503,95 @@
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="11">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="2" t="str">
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="11">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="5">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="2" t="str">
         <f>J7</f>
-        <v>PS0049338</v>
-      </c>
-      <c r="H22" s="2">
+        <v>PS0049382</v>
+      </c>
+      <c r="H24" s="2">
         <v>10</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://proxima-ln4.e-emphasys.com:8441/webui/servlet/login"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
